--- a/Stage2/nrRatioModelMAT(raw).xlsx
+++ b/Stage2/nrRatioModelMAT(raw).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -385,7 +385,7 @@
   <dimension ref="A1:E550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E550"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,16 +429,16 @@
         <v>512</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>512</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0.91768037283936033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -449,13 +449,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.95051816107352782</v>
+        <v>0.98464011134676577</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -466,13 +466,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>0.98890295004295869</v>
+        <v>0.90910288844655152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -480,67 +480,67 @@
         <v>512</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>1.1550689799331104</v>
+        <v>0.98870191351394343</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1.2008933362673755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>1.3774055880713489</v>
+        <v>0.91604895233689709</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1.4639266304347829</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1.6465709562176953</v>
+        <v>0.91654829545454541</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -565,16 +565,16 @@
         <v>512</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.86608462982391732</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,282 +585,282 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>0.99283246407429415</v>
+        <v>0.93415197937582106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1.0301618206992038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>1.0800758499255045</v>
+        <v>0.91604895233689709</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>1.2645437726226816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>1.3111747449254727</v>
+        <v>0.95552979760119938</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1.5176298270291939</v>
+        <v>0.90665573160974922</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>1.6054460864805695</v>
+        <v>0.97470796033745999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D19">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1.8341483394029057</v>
+        <v>0.93947916666666675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.88058314732142862</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>1.0411946271568022</v>
+        <v>0.95708372620330473</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>1.082851460875232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>1.2689834520756398</v>
+        <v>0.93993141560412363</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>1.320029108822212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1.5182573200284164</v>
+        <v>0.98155392779048689</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>1.6132980369237115</v>
+        <v>0.92311920780192325</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>1.8181356388807721</v>
+        <v>0.98070778026020755</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -868,36 +868,36 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>1.0398836186996929</v>
+        <v>0.93909730976287853</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>512</v>
+        <v>4096</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>1.2182395385648126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
